--- a/2019-1-13/冲刺分工1.0.xlsx
+++ b/2019-1-13/冲刺分工1.0.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12718829-EC22-49DB-9537-58E0981AC6A7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0BD22F-4347-4A23-8368-DB0C1DEF8BD7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="44">
   <si>
     <t>【周日交】软件概要设计说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -750,11 +750,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C17" t="s">
